--- a/Doc/Journal-de-Travail_JulMares.xlsx
+++ b/Doc/Journal-de-Travail_JulMares.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px50vpm\Documents\GitHub\PortofolioDev\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A183B26-7E4A-4915-B8B7-B6CAF12104A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5CCC03-8B8D-4420-AC2E-E4B1D6657130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -1176,7 +1176,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6388888888888895E-2</c:v>
+                  <c:v>9.7222222222222224E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4.1666666666666664E-2</c:v>
@@ -2104,7 +2104,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 5 heurs 50 minutes</v>
+        <v>0 jours 6 heurs 20 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2176,11 +2176,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="49">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E12" s="50" t="s">
         <v>6</v>
@@ -2380,7 +2380,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
         <v>49</v>
@@ -2389,9 +2389,15 @@
         <v>45631</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="37"/>
+      <c r="D13" s="53">
+        <v>5</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G13" s="18"/>
       <c r="M13" t="s">
         <v>8</v>
@@ -8829,7 +8835,7 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C7" s="28" t="str">
         <f>'Journal de travail'!M11</f>
@@ -8837,7 +8843,7 @@
       </c>
       <c r="D7" s="34">
         <f t="shared" si="0"/>
-        <v>7.6388888888888895E-2</v>
+        <v>9.7222222222222224E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8910,7 +8916,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.24305555555555555</v>
+        <v>0.26388888888888884</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9147,15 +9153,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9164,6 +9161,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9186,14 +9192,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9202,4 +9200,12 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Doc/Journal-de-Travail_JulMares.xlsx
+++ b/Doc/Journal-de-Travail_JulMares.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px50vpm\Documents\GitHub\PortofolioDev\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5CCC03-8B8D-4420-AC2E-E4B1D6657130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3822B3-7FA8-4233-B1A8-3A0B178A32CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Rédaction jnvtrl (je n'avais pas vu le temps donc je l'ai écris sur teams premièrement et copié dans excel plus tard.)</t>
+  </si>
+  <si>
+    <t>Utilisation de chatgpt pour journal de commits, c'est très pratique j'ai juste copié tout mes commits depuis github et donner a chatgpt et il m'a fais un rendu très propre</t>
   </si>
 </sst>
 </file>
@@ -2104,7 +2107,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2349,7 +2352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
         <v>49</v>
@@ -2369,7 +2372,9 @@
       <c r="F12" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="M12" t="s">
         <v>7</v>
       </c>

--- a/Doc/Journal-de-Travail_JulMares.xlsx
+++ b/Doc/Journal-de-Travail_JulMares.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px50vpm\Documents\GitHub\PortofolioDev\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3822B3-7FA8-4233-B1A8-3A0B178A32CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9E3002-F345-4E55-9BC2-EF19620D517A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -124,9 +124,6 @@
     <t>28.11.2024  au 05.12.2024</t>
   </si>
   <si>
-    <t>Mateen Khalil</t>
-  </si>
-  <si>
     <t>Portofolio Dev</t>
   </si>
   <si>
@@ -149,6 +146,18 @@
   </si>
   <si>
     <t>Utilisation de chatgpt pour journal de commits, c'est très pratique j'ai juste copié tout mes commits depuis github et donner a chatgpt et il m'a fais un rendu très propre</t>
+  </si>
+  <si>
+    <t>Julien Mares</t>
+  </si>
+  <si>
+    <t>Pendnat 3h j'ai essayé de déployer une machine virtuel sur azure mais jsp pq par rapport à la derniere fois qd on avait fais ça jpouvais pas me conncter avc SSH, j'ai essayer d'installer une extension fais pour "openSSH" mais imposible de l'installer donc finalement j'ai commencé à utiliser le service webapp</t>
+  </si>
+  <si>
+    <t>Création WebAPP (la base) par rapport au repos  (déploiement qui a échoué a la fin du cours mais je pense que c'est une bonne voie)</t>
+  </si>
+  <si>
+    <t>Pendant toute l'après midi j'ai essayé de déployer la web app mais ça marche pas car qd on veut lancer le frontend sur azure cela ne trouve pas les fichiers index-xxxxxx.js et index-xxxxxxxx.cs qui sont automatiquement créer lors du build, mais qd je dl la release je vois bien qu'ils sont là au bonne place donc là jcomprend vrm pas pq ca marche pas.</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1182,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.43055555555555558</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2107,7 +2116,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2143,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D2" s="58"/>
       <c r="E2" s="58"/>
@@ -2151,7 +2160,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
@@ -2160,7 +2169,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 6 heurs 20 minutes</v>
+        <v>0 jours 14 heurs 0 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2175,15 +2184,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="23">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>380</v>
+        <v>840</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2232,7 +2241,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="15"/>
     </row>
@@ -2252,7 +2261,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="16"/>
       <c r="M8" t="s">
@@ -2281,7 +2290,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="18"/>
       <c r="M9" t="s">
@@ -2308,7 +2317,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="16"/>
       <c r="M10" t="s">
@@ -2339,7 +2348,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="18"/>
       <c r="M11" t="s">
@@ -2370,10 +2379,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M12" t="s">
         <v>7</v>
@@ -2401,7 +2410,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="18"/>
       <c r="M13" t="s">
@@ -2414,7 +2423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
         <v>49</v>
@@ -2422,10 +2431,16 @@
       <c r="B14" s="43">
         <v>45631</v>
       </c>
-      <c r="C14" s="48"/>
+      <c r="C14" s="48">
+        <v>3</v>
+      </c>
       <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="37"/>
+      <c r="E14" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>36</v>
+      </c>
       <c r="G14" s="16"/>
       <c r="M14" t="s">
         <v>21</v>
@@ -2437,16 +2452,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="str">
+    <row r="15" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
-        <v/>
-      </c>
-      <c r="B15" s="51"/>
+        <v>50</v>
+      </c>
+      <c r="B15" s="51">
+        <v>45638</v>
+      </c>
       <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="37"/>
+      <c r="D15" s="53">
+        <v>50</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>37</v>
+      </c>
       <c r="G15" s="18"/>
       <c r="M15" t="s">
         <v>22</v>
@@ -2458,16 +2481,26 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="str">
+    <row r="16" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
-        <v/>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="37"/>
+        <v>51</v>
+      </c>
+      <c r="B16" s="47">
+        <v>45645</v>
+      </c>
+      <c r="C16" s="48">
+        <v>3</v>
+      </c>
+      <c r="D16" s="49">
+        <v>50</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="G16" s="16"/>
       <c r="O16">
         <v>40</v>
@@ -8800,11 +8833,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8812,7 +8845,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.1111111111111111</v>
+        <v>0.43055555555555558</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8921,7 +8954,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.26388888888888884</v>
+        <v>0.58333333333333326</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9158,6 +9191,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9166,15 +9208,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9197,6 +9230,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9205,12 +9246,4 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>